--- a/biology/Zoologie/Bec_corné/Bec_corné.xlsx
+++ b/biology/Zoologie/Bec_corné/Bec_corné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bec_corn%C3%A9</t>
+          <t>Bec_corné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En zoologie, le terme de bec corné ne peut s'employer que pour désigner la matière du bec de certains vertébrés (tortues, oiseaux).
 Les tortues modernes ont un bec corné. Par contre, les ancêtres les plus anciens des tortues (Odontochelys et Proganochelys) avaient une mâchoire avec des dents.
